--- a/xlsx/公共管理_intext.xlsx
+++ b/xlsx/公共管理_intext.xlsx
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>官僚體制</t>
+    <t>官僚体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·柯林頓</t>
+    <t>比尔·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
